--- a/database_market.xlsx
+++ b/database_market.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Angular\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Angular\Market_Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF3F10C-6E86-48FA-99B6-3D3622C752C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D50846-3526-43BE-A296-51B7ADE18A4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="9" xr2:uid="{828794BC-022B-4940-98C2-33F10A65F0C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="794" xr2:uid="{828794BC-022B-4940-98C2-33F10A65F0C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="2" r:id="rId1"/>
@@ -380,15 +380,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -411,17 +417,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -432,28 +427,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -461,16 +443,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED59609E-6437-478A-9918-2BEAF1A6740F}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,138 +800,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>7</v>
       </c>
     </row>
@@ -948,27 +945,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CCA12E-4176-4745-BB74-3EBA752B409D}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1024,63 +1021,63 @@
       <c r="C5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="10">
         <v>8960823701</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="9">
         <v>987</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="10">
         <v>987654321</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="9">
         <v>234</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="10">
         <v>123456789</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="9">
         <v>432</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="10">
         <v>231456778</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="9">
         <v>567</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="10">
         <v>985432098</v>
       </c>
     </row>
@@ -1095,7 +1092,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,79 +1103,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1192,7 +1189,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,33 +1200,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
         <v>111111111</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
         <v>222222222</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="7">
         <v>777777777</v>
       </c>
       <c r="F3" t="s">
@@ -1237,42 +1234,42 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="8">
         <v>333333333</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="8">
         <v>444444444</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="8">
         <v>555555555</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="7">
         <v>888888888</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="8">
         <v>666666666</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1285,7 +1282,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,138 +1295,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="6">
         <v>0.05</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>0.03</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>0.08</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="6">
         <v>0.04</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>0.06</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>0.1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>90</v>
       </c>
     </row>
@@ -1443,7 +1440,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,181 +1454,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
         <v>790</v>
       </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="15">
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>7</v>
       </c>
-      <c r="G3">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
         <v>987</v>
       </c>
-      <c r="I3">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
         <v>987</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
         <v>234</v>
       </c>
-      <c r="I5">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>432</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>3</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>567</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>4</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1645,7 +1650,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,72 +1662,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="10">
         <v>790</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="10">
         <v>987</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="10">
         <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>567</v>
       </c>
     </row>
@@ -1736,7 +1741,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,66 +1751,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1820,7 +1825,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,34 +1835,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1871,7 +1876,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,72 +1887,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
         <v>80</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="11">
         <v>4</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="11">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
         <v>180</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>135</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>13.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <v>148.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>240</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <v>12</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <v>252</v>
       </c>
     </row>
